--- a/biology/Zoologie/Diapsida/Diapsida.xlsx
+++ b/biology/Zoologie/Diapsida/Diapsida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les diapsides (Diapsida) sont une sous-classe ainsi qu'un clade de tétrapodes amniotes du clade des Sauropsides, qui réunit tous les oiseaux et reptiles actuels. Contrairement à une idée très répandue, les tortues sont des anapsides et ne font pas partie de la sous-classe des diapsides. Leur crâne possède, ou possédait dans leur évolution, deux paires de fosses temporales, c'est-à-dire deux ouvertures. Les os squamosal et postorbitaire les séparent. Ces ouvertures permettent aux mâchoires de se bloquer en position fermée et ainsi d'avoir plus de force lors d'une morsure.
-La question de l'appartenance des tortues aux diapsides est discutée. Traditionnellement, elles en sont exclues, car elles ne portent pas de fosses temporales. De récentes études morphologiques (menées par différents auteurs[1]) s'accordent cependant pour dire que les tortues seraient des diapsides modifiés, ayant perdu leurs fosses temporales. Les tortues sont, d'un point de vue descriptif, des anapsides (au sens où elles ne possèdent pas ces fosses supérieures et inférieures). Mais, d'un point de vue phylogénétique, on ne peut pas exclure leur appartenance aux diapsides[2]. Ceux-ci incluraient alors tous les « reptiles » actuels et les oiseaux, sans exception.
+La question de l'appartenance des tortues aux diapsides est discutée. Traditionnellement, elles en sont exclues, car elles ne portent pas de fosses temporales. De récentes études morphologiques (menées par différents auteurs) s'accordent cependant pour dire que les tortues seraient des diapsides modifiés, ayant perdu leurs fosses temporales. Les tortues sont, d'un point de vue descriptif, des anapsides (au sens où elles ne possèdent pas ces fosses supérieures et inférieures). Mais, d'un point de vue phylogénétique, on ne peut pas exclure leur appartenance aux diapsides. Ceux-ci incluraient alors tous les « reptiles » actuels et les oiseaux, sans exception.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les premiers fossiles de diapsides connus datent du Carbonifère supérieur. Certaines espèces de diapsides ont perdu une fosse (lézards), les deux (serpents), ou ont subi une restructuration plus complète du crâne (oiseaux modernes). On a observé aussi sur les fossiles un radius plus long que l'humérus sur la patte antérieure.
 </t>
@@ -543,7 +557,9 @@
           <t>Répartitions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est le cas de nombreux Dinosaures, Ptérosaures, Plésiosaures, Mosasaures… Squamates, Crocodilia et Oiseaux. On dénombre encore environ 14 600 espèces vivantes dans ce groupe.
 </t>
@@ -574,10 +590,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Euryapsides dont le crâne diffère des diapsides par le nombre de fosses temporales (ou fenêtres temporales) sont à présent classés dans ce taxon. La classification de la plupart des taxons supérieurs est controversée et sujette à modification.
-D'après Benton, 2005[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les Euryapsides dont le crâne diffère des diapsides par le nombre de fosses temporales (ou fenêtres temporales) sont à présent classés dans ce taxon. La classification de la plupart des taxons supérieurs est controversée et sujette à modification.
+D'après Benton, 2005.
 Sous-classe des DIAPSIDA :
 Ordre des †Araeoscelidia
 Ordre des †Thalattosauria, parfois placé dans Sauropterygia
@@ -600,10 +618,44 @@
 Ordre des †Aetosauria
 Ordre des †Phytosauria
 Super-ordre des Crocodylomorpha
-Ordre des Crocodylia (crocodiliens)
-Phylogénie
-Les Araeoscélidiens forment le groupe de diapsides le plus basal connu. Le clade des Neodiapsida inclut tous les diapsides plus proches du groupe-couronne des Sauria que des Araeoscelidia.
-Phylogénie des genres et groupes basaux de diapsides, d'après Bickelmann et al., 2009[4] et Reisz et al., 2011[5] :
+Ordre des Crocodylia (crocodiliens)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Diapsida</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diapsida</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Araeoscélidiens forment le groupe de diapsides le plus basal connu. Le clade des Neodiapsida inclut tous les diapsides plus proches du groupe-couronne des Sauria que des Araeoscelidia.
+Phylogénie des genres et groupes basaux de diapsides, d'après Bickelmann et al., 2009 et Reisz et al., 2011 :
 Phylogénie des grands groupes de diapsides actuels (à l'exception des tortues dont la position est incertaine) :
 Note: Sauria est le groupe-couronne des diapsides actuels.
 </t>
